--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.56096829613312</v>
+        <v>0.5748063333333333</v>
       </c>
       <c r="H2">
-        <v>1.56096829613312</v>
+        <v>1.724419</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.7276165460023</v>
+        <v>35.337883</v>
       </c>
       <c r="N2">
-        <v>20.7276165460023</v>
+        <v>106.013649</v>
       </c>
       <c r="O2">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="P2">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="Q2">
-        <v>32.35515228271387</v>
+        <v>20.31243895499233</v>
       </c>
       <c r="R2">
-        <v>32.35515228271387</v>
+        <v>182.811950594931</v>
       </c>
       <c r="S2">
-        <v>0.2868811880539773</v>
+        <v>0.07084653439554475</v>
       </c>
       <c r="T2">
-        <v>0.2868811880539773</v>
+        <v>0.07084653439554475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.56096829613312</v>
+        <v>0.5748063333333333</v>
       </c>
       <c r="H3">
-        <v>1.56096829613312</v>
+        <v>1.724419</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3929563582402</v>
+        <v>40.49537033333333</v>
       </c>
       <c r="N3">
-        <v>40.3929563582402</v>
+        <v>121.486111</v>
       </c>
       <c r="O3">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013757</v>
       </c>
       <c r="P3">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013756</v>
       </c>
       <c r="Q3">
-        <v>63.05212426230167</v>
+        <v>23.27699533827878</v>
       </c>
       <c r="R3">
-        <v>63.05212426230167</v>
+        <v>209.492958044509</v>
       </c>
       <c r="S3">
-        <v>0.559059903648177</v>
+        <v>0.08118643233893844</v>
       </c>
       <c r="T3">
-        <v>0.559059903648177</v>
+        <v>0.08118643233893842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.5748063333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.724419</v>
+      </c>
+      <c r="I4">
+        <v>0.1785342934984892</v>
+      </c>
+      <c r="J4">
+        <v>0.1785342934984892</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>13.218724</v>
+      </c>
+      <c r="N4">
+        <v>39.656172</v>
+      </c>
+      <c r="O4">
+        <v>0.1484382985738831</v>
+      </c>
+      <c r="P4">
+        <v>0.148438298573883</v>
+      </c>
+      <c r="Q4">
+        <v>7.598206273785333</v>
+      </c>
+      <c r="R4">
+        <v>68.38385646406799</v>
+      </c>
+      <c r="S4">
+        <v>0.02650132676400601</v>
+      </c>
+      <c r="T4">
+        <v>0.02650132676400601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7888463333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.366539</v>
+      </c>
+      <c r="I5">
+        <v>0.2450149113420932</v>
+      </c>
+      <c r="J5">
+        <v>0.2450149113420933</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>35.337883</v>
+      </c>
+      <c r="N5">
+        <v>106.013649</v>
+      </c>
+      <c r="O5">
+        <v>0.3968231145247413</v>
+      </c>
+      <c r="P5">
+        <v>0.3968231145247413</v>
+      </c>
+      <c r="Q5">
+        <v>27.87615943231233</v>
+      </c>
+      <c r="R5">
+        <v>250.885434890811</v>
+      </c>
+      <c r="S5">
+        <v>0.0972275802237728</v>
+      </c>
+      <c r="T5">
+        <v>0.09722758022377281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.7888463333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.366539</v>
+      </c>
+      <c r="I6">
+        <v>0.2450149113420932</v>
+      </c>
+      <c r="J6">
+        <v>0.2450149113420933</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>40.49537033333333</v>
+      </c>
+      <c r="N6">
+        <v>121.486111</v>
+      </c>
+      <c r="O6">
+        <v>0.4547385869013757</v>
+      </c>
+      <c r="P6">
+        <v>0.4547385869013756</v>
+      </c>
+      <c r="Q6">
+        <v>31.94462440442544</v>
+      </c>
+      <c r="R6">
+        <v>287.501619639829</v>
+      </c>
+      <c r="S6">
+        <v>0.1114177345534693</v>
+      </c>
+      <c r="T6">
+        <v>0.1114177345534693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.7888463333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.366539</v>
+      </c>
+      <c r="I7">
+        <v>0.2450149113420932</v>
+      </c>
+      <c r="J7">
+        <v>0.2450149113420933</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.218724</v>
+      </c>
+      <c r="N7">
+        <v>39.656172</v>
+      </c>
+      <c r="O7">
+        <v>0.1484382985738831</v>
+      </c>
+      <c r="P7">
+        <v>0.148438298573883</v>
+      </c>
+      <c r="Q7">
+        <v>10.42754195874533</v>
+      </c>
+      <c r="R7">
+        <v>93.84787762870799</v>
+      </c>
+      <c r="S7">
+        <v>0.03636959656485112</v>
+      </c>
+      <c r="T7">
+        <v>0.03636959656485113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.56096829613312</v>
-      </c>
-      <c r="H4">
-        <v>1.56096829613312</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>11.1309981611365</v>
-      </c>
-      <c r="N4">
-        <v>11.1309981611365</v>
-      </c>
-      <c r="O4">
-        <v>0.1540589082978456</v>
-      </c>
-      <c r="P4">
-        <v>0.1540589082978456</v>
-      </c>
-      <c r="Q4">
-        <v>17.37513523385013</v>
-      </c>
-      <c r="R4">
-        <v>17.37513523385013</v>
-      </c>
-      <c r="S4">
-        <v>0.1540589082978456</v>
-      </c>
-      <c r="T4">
-        <v>0.1540589082978456</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.855932333333334</v>
+      </c>
+      <c r="H8">
+        <v>5.567797000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.5764507951594176</v>
+      </c>
+      <c r="J8">
+        <v>0.5764507951594177</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>35.337883</v>
+      </c>
+      <c r="N8">
+        <v>106.013649</v>
+      </c>
+      <c r="O8">
+        <v>0.3968231145247413</v>
+      </c>
+      <c r="P8">
+        <v>0.3968231145247413</v>
+      </c>
+      <c r="Q8">
+        <v>65.58471965125034</v>
+      </c>
+      <c r="R8">
+        <v>590.262476861253</v>
+      </c>
+      <c r="S8">
+        <v>0.2287489999054238</v>
+      </c>
+      <c r="T8">
+        <v>0.2287489999054238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.855932333333334</v>
+      </c>
+      <c r="H9">
+        <v>5.567797000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.5764507951594176</v>
+      </c>
+      <c r="J9">
+        <v>0.5764507951594177</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>40.49537033333333</v>
+      </c>
+      <c r="N9">
+        <v>121.486111</v>
+      </c>
+      <c r="O9">
+        <v>0.4547385869013757</v>
+      </c>
+      <c r="P9">
+        <v>0.4547385869013756</v>
+      </c>
+      <c r="Q9">
+        <v>75.15666715194078</v>
+      </c>
+      <c r="R9">
+        <v>676.4100043674671</v>
+      </c>
+      <c r="S9">
+        <v>0.2621344200089679</v>
+      </c>
+      <c r="T9">
+        <v>0.2621344200089679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.855932333333334</v>
+      </c>
+      <c r="H10">
+        <v>5.567797000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.5764507951594176</v>
+      </c>
+      <c r="J10">
+        <v>0.5764507951594177</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.218724</v>
+      </c>
+      <c r="N10">
+        <v>39.656172</v>
+      </c>
+      <c r="O10">
+        <v>0.1484382985738831</v>
+      </c>
+      <c r="P10">
+        <v>0.148438298573883</v>
+      </c>
+      <c r="Q10">
+        <v>24.53305727700933</v>
+      </c>
+      <c r="R10">
+        <v>220.797515493084</v>
+      </c>
+      <c r="S10">
+        <v>0.08556737524502593</v>
+      </c>
+      <c r="T10">
+        <v>0.08556737524502593</v>
       </c>
     </row>
   </sheetData>
